--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290629.0331111668</v>
+        <v>285766.739839982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6910428.15556014</v>
+        <v>6037395.839817931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13105198.29760689</v>
+        <v>12249539.32494795</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6289694.891975659</v>
+        <v>6649161.326881276</v>
       </c>
     </row>
     <row r="11">
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,16 +718,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.2450056236571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>52.8574377722597</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>99.28333375060579</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>93.52529077486065</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D5" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +977,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>131.7451986962155</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>168.1642022869136</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.74086563202135</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="C8" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="D8" t="n">
         <v>202.5496269016834</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>86.06099431075104</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>123.6991306553479</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="W11" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="W11" t="n">
-        <v>202.5496269016834</v>
       </c>
       <c r="X11" t="n">
         <v>229.9609751381512</v>
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1500,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>22.76426037514524</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>32.30893275760349</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,73 +1609,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>101.7908309376553</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="W14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136.9537457384598</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S14" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T14" t="n">
-        <v>221.2655964161775</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.3667956667111</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1743,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>149.403026182803</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>229.9609751381512</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>243.4678766012345</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
-        <v>79.36679566671111</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>79.88764742793472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>229.9609751381512</v>
+        <v>175.6983641828945</v>
       </c>
       <c r="W19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>312.1350518117879</v>
+        <v>137.3932842861139</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2211,7 +2213,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830805</v>
       </c>
       <c r="U21" t="n">
         <v>207.9625118881446</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>89.03088904473657</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>212.395200770917</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>312.9896827752208</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>279.5348493339605</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>9.863149079888238</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>354.5654092500438</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2570,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>48.02086213497415</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>145.9951119230969</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2795,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>368.0170707239984</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>19.73044033344715</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2889,7 +2891,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>159.3149947016333</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>108.1045920014105</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.118434985167641</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>168.6545639842436</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>149.882595914527</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>76.63865292358274</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>175.7155420916414</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>113.1667354347866</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -3518,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>165.9761649179191</v>
+        <v>78.05489521706652</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199063</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>111.2555373903785</v>
       </c>
       <c r="I41" t="n">
-        <v>54.0527497809902</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.6598741163386</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>229.9609751381512</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>229.9609751381512</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>216.3004615321862</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4062,19 +4064,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>43.90629403118023</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
@@ -4113,16 +4115,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9609751381512</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>89.73163134740386</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,16 +4333,16 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L2" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M2" t="n">
-        <v>390.7080163066498</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N2" t="n">
-        <v>618.3693816934194</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O2" t="n">
         <v>734.998340411656</v>
@@ -4352,25 +4354,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T2" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U2" t="n">
-        <v>464.0594848411615</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V2" t="n">
-        <v>464.0594848411615</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="W2" t="n">
-        <v>464.0594848411615</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X2" t="n">
-        <v>231.7756715703017</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y2" t="n">
         <v>18.39687801105209</v>
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.4424597360707</v>
+        <v>299.1400758294795</v>
       </c>
       <c r="C3" t="n">
-        <v>71.78822929616291</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D3" t="n">
         <v>18.39687801105209</v>
@@ -4407,25 +4409,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L3" t="n">
-        <v>131.5118602307795</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M3" t="n">
-        <v>236.8598043922958</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N3" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O3" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P3" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
@@ -4437,22 +4439,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T3" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U3" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V3" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W3" t="n">
-        <v>742.8600887515131</v>
+        <v>819.557704844922</v>
       </c>
       <c r="X3" t="n">
-        <v>553.5530111015248</v>
+        <v>630.2506271949337</v>
       </c>
       <c r="Y3" t="n">
-        <v>374.238794177032</v>
+        <v>450.9364102704409</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>749.6387826185938</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>594.0056695211085</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>438.446857380311</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>281.120922593284</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>112.8668686927295</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
         <v>18.39687801105209</v>
@@ -4513,25 +4515,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U4" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V4" t="n">
-        <v>919.8439005526046</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="W4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C5" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
         <v>18.39687801105209</v>
@@ -4565,19 +4567,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L5" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M5" t="n">
-        <v>618.3693816934194</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N5" t="n">
-        <v>618.3693816934194</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O5" t="n">
         <v>692.182535165835</v>
@@ -4589,28 +4591,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V5" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W5" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X5" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y5" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154.8433689001644</v>
+        <v>432.2160341084851</v>
       </c>
       <c r="C6" t="n">
-        <v>154.8433689001644</v>
+        <v>281.5618036685773</v>
       </c>
       <c r="D6" t="n">
-        <v>154.8433689001644</v>
+        <v>151.4728362900577</v>
       </c>
       <c r="E6" t="n">
         <v>18.39687801105209</v>
@@ -4644,25 +4646,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L6" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M6" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N6" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O6" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
@@ -4671,25 +4673,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S6" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T6" t="n">
-        <v>895.9268574506692</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U6" t="n">
-        <v>895.9268574506692</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="V6" t="n">
-        <v>726.0640268578272</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="W6" t="n">
-        <v>495.9467809911141</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="X6" t="n">
-        <v>306.6397033411257</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="Y6" t="n">
-        <v>306.6397033411257</v>
+        <v>584.0123685494465</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>734.6358818613033</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C7" t="n">
-        <v>564.4307639272926</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D7" t="n">
-        <v>408.7976508298073</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E7" t="n">
-        <v>253.2388386890098</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F7" t="n">
-        <v>95.91290390198276</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G7" t="n">
         <v>18.39687801105209</v>
@@ -4747,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C8" t="n">
-        <v>482.9645045527716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D8" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E8" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F8" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
         <v>18.39687801105209</v>
@@ -4808,19 +4810,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="L8" t="n">
-        <v>163.0466509198802</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M8" t="n">
-        <v>390.7080163066498</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N8" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O8" t="n">
-        <v>846.030747080189</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
@@ -4838,16 +4840,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V8" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W8" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X8" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y8" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.327175294639</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="C9" t="n">
-        <v>105.327175294639</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="D9" t="n">
-        <v>105.327175294639</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="E9" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F9" t="n">
         <v>18.39687801105209</v>
@@ -4881,19 +4883,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L9" t="n">
         <v>236.8598043922958</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N9" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="O9" t="n">
         <v>919.8439005526046</v>
@@ -4908,25 +4910,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T9" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U9" t="n">
-        <v>709.7807572312464</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2407556023135</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="W9" t="n">
-        <v>257.1235097356004</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="X9" t="n">
-        <v>257.1235097356004</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="Y9" t="n">
-        <v>257.1235097356004</v>
+        <v>272.9176515064399</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="C10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="D10" t="n">
-        <v>818.4869254147573</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="E10" t="n">
         <v>662.9281132739598</v>
@@ -4984,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5041,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L11" t="n">
-        <v>618.3693816934194</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M11" t="n">
-        <v>734.998340411656</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N11" t="n">
-        <v>734.998340411656</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O11" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P11" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q11" t="n">
         <v>919.8439005526046</v>
@@ -5075,7 +5077,7 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V11" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W11" t="n">
         <v>482.9645045527716</v>
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>284.932336278684</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C12" t="n">
-        <v>284.932336278684</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D12" t="n">
-        <v>154.8433689001644</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E12" t="n">
         <v>18.39687801105209</v>
@@ -5118,25 +5120,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K12" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L12" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M12" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N12" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O12" t="n">
-        <v>586.8345910043187</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P12" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
@@ -5148,22 +5150,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T12" t="n">
-        <v>896.849698153468</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U12" t="n">
-        <v>686.7865548321098</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V12" t="n">
-        <v>464.2465532031768</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="W12" t="n">
-        <v>464.2465532031768</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="X12" t="n">
-        <v>464.2465532031768</v>
+        <v>500.161659816414</v>
       </c>
       <c r="Y12" t="n">
-        <v>284.932336278684</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D13" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E13" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F13" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G13" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H13" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5221,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T13" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U13" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>491.8368293385938</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C14" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I14" t="n">
         <v>18.39687801105209</v>
@@ -5282,13 +5284,13 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L14" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M14" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="N14" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O14" t="n">
         <v>692.182535165835</v>
@@ -5300,28 +5302,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S14" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T14" t="n">
-        <v>491.8368293385938</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U14" t="n">
-        <v>491.8368293385938</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V14" t="n">
-        <v>491.8368293385938</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W14" t="n">
-        <v>491.8368293385938</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X14" t="n">
-        <v>491.8368293385938</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y14" t="n">
-        <v>491.8368293385938</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K15" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L15" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M15" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N15" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O15" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P15" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
@@ -5391,16 +5393,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V15" t="n">
-        <v>697.3038989236717</v>
+        <v>768.9317528932077</v>
       </c>
       <c r="W15" t="n">
-        <v>467.1866530569586</v>
+        <v>538.8145070264945</v>
       </c>
       <c r="X15" t="n">
-        <v>277.8795754069702</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.56535848247745</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="16">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>715.2483178236314</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C17" t="n">
-        <v>715.2483178236314</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D17" t="n">
-        <v>715.2483178236314</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E17" t="n">
-        <v>715.2483178236314</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F17" t="n">
-        <v>482.9645045527716</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G17" t="n">
-        <v>250.6806912819119</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0466509198802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>163.0466509198802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L17" t="n">
-        <v>163.0466509198802</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M17" t="n">
-        <v>390.7080163066498</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N17" t="n">
-        <v>618.3693816934194</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O17" t="n">
-        <v>618.3693816934194</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
-        <v>734.998340411656</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>919.8439005526046</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T17" t="n">
-        <v>919.8439005526046</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U17" t="n">
-        <v>919.8439005526046</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V17" t="n">
-        <v>919.8439005526046</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W17" t="n">
-        <v>919.8439005526046</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X17" t="n">
-        <v>919.8439005526046</v>
+        <v>617.3231686171081</v>
       </c>
       <c r="Y17" t="n">
-        <v>919.8439005526046</v>
+        <v>371.396020535053</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.39687801105209</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>18.39687801105209</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>18.39687801105209</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>18.39687801105209</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>18.39687801105209</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39687801105209</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K18" t="n">
-        <v>246.0582433978217</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>473.7196087845913</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>692.182535165835</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N18" t="n">
-        <v>692.182535165835</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O18" t="n">
-        <v>692.182535165835</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>692.182535165835</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>919.8439005526046</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>919.8439005526046</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>919.8439005526046</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>839.6754200811793</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>617.1354184522463</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>387.0181725855332</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>197.7110949355448</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.39687801105209</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N19" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O19" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P19" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>795.9429111851816</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>795.9429111851816</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>715.2483178236314</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>482.9645045527716</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V19" t="n">
-        <v>250.6806912819119</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>825.9296003819453</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C20" t="n">
-        <v>432.7540988848759</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154361</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>503.6092283712875</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.655591362702</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V20" t="n">
-        <v>2327.655591362702</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.367660239684</v>
+        <v>1629.007870976798</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.915055172741</v>
+        <v>1629.007870976798</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.424346093342</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631995</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5874,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.201482535628</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S22" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T22" t="n">
-        <v>2129.929453245415</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U22" t="n">
-        <v>2129.929453245415</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.950108066239</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W22" t="n">
-        <v>1649.409501226929</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X22" t="n">
-        <v>1649.409501226929</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="Y22" t="n">
-        <v>1649.409501226929</v>
+        <v>307.4482789898337</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1179.210445219441</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="C23" t="n">
-        <v>863.0592504969959</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="D23" t="n">
-        <v>863.0592504969959</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E23" t="n">
-        <v>460.4757256135405</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -6002,37 +6004,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="X23" t="n">
-        <v>1976.195900010237</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="Y23" t="n">
-        <v>1579.705190930838</v>
+        <v>1886.395173071195</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J24" t="n">
-        <v>54.70361680265887</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K24" t="n">
-        <v>374.4427628648853</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>858.0088487631986</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1947.365648354151</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C25" t="n">
-        <v>1777.16053042014</v>
+        <v>839.5634350659138</v>
       </c>
       <c r="D25" t="n">
-        <v>1621.527417322655</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E25" t="n">
-        <v>1621.527417322655</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535628</v>
+        <v>371.045575040604</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535628</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>2355.685728228808</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y25" t="n">
-        <v>2132.573667045452</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1604.036739400527</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="C26" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D26" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1304.804169167248</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2317.142583728722</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V26" t="n">
-        <v>1975.03577443224</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W26" t="n">
-        <v>1604.036739400527</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="X26" t="n">
-        <v>1604.036739400527</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="Y26" t="n">
-        <v>1604.036739400527</v>
+        <v>2023.541695780698</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J27" t="n">
-        <v>160.427952321271</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834974</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L27" t="n">
-        <v>678.132212472995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X27" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>1932.739903295751</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W28" t="n">
-        <v>1649.409501226929</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X28" t="n">
-        <v>1649.409501226929</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y28" t="n">
-        <v>1649.409501226929</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1177.734277544119</v>
+        <v>1197.664015254671</v>
       </c>
       <c r="C29" t="n">
-        <v>784.5587760470498</v>
+        <v>804.4885137576016</v>
       </c>
       <c r="D29" t="n">
-        <v>784.5587760470498</v>
+        <v>419.0473849742693</v>
       </c>
       <c r="E29" t="n">
-        <v>784.5587760470498</v>
+        <v>419.0473849742693</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>419.0473849742693</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>265.4829774041385</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>758.8032691226673</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1304.804169167248</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V29" t="n">
-        <v>2345.718767366628</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W29" t="n">
-        <v>1974.719732334915</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="X29" t="n">
-        <v>1974.719732334915</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="Y29" t="n">
-        <v>1578.229023255516</v>
+        <v>1598.158760966068</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X30" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2365.64850507718</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C31" t="n">
-        <v>2365.64850507718</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D31" t="n">
-        <v>2210.015391979695</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E31" t="n">
-        <v>2054.456579838898</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F31" t="n">
-        <v>1897.13064505187</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G31" t="n">
-        <v>1728.876591151316</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H31" t="n">
-        <v>1573.39804011281</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W31" t="n">
-        <v>2365.64850507718</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="X31" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.23778079134</v>
       </c>
       <c r="Y31" t="n">
-        <v>2365.64850507718</v>
+        <v>1625.125719607983</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>440.488471598613</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154361</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154361</v>
+        <v>793.7693164361081</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O32" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2195.29035963855</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>1939.537630073149</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>1597.430820776668</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W32" t="n">
-        <v>1226.431785744955</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X32" t="n">
-        <v>836.979180678012</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y32" t="n">
-        <v>440.488471598613</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K33" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L33" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
-        <v>1443.506853769802</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="C34" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="D34" t="n">
-        <v>847.4030175052487</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="E34" t="n">
-        <v>691.8442053644512</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>229.0878018052669</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6889,19 +6891,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W34" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X34" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>464.2074085715658</v>
+        <v>1802.644240938831</v>
       </c>
       <c r="C35" t="n">
-        <v>464.2074085715658</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="D35" t="n">
-        <v>464.2074085715658</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E35" t="n">
-        <v>464.2074085715658</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
@@ -6947,40 +6949,40 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>2118.077574438405</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T35" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U35" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V35" t="n">
-        <v>2021.644503461017</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W35" t="n">
-        <v>1650.645468429305</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="X35" t="n">
-        <v>1261.192863362362</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="Y35" t="n">
-        <v>864.7021542829627</v>
+        <v>1802.644240938831</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154367</v>
+        <v>54.7036168026591</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154367</v>
+        <v>374.4427628648855</v>
       </c>
       <c r="L36" t="n">
-        <v>530.879055999857</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631995</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S37" t="n">
-        <v>834.4501588705843</v>
+        <v>2251.338671304668</v>
       </c>
       <c r="T37" t="n">
-        <v>598.7311070388184</v>
+        <v>2015.619619472902</v>
       </c>
       <c r="U37" t="n">
-        <v>313.2923152807194</v>
+        <v>1730.180827714802</v>
       </c>
       <c r="V37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C38" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N38" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T38" t="n">
-        <v>1993.489344467471</v>
+        <v>2248.812262860614</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.489344467471</v>
+        <v>1993.059533295213</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.489344467471</v>
+        <v>1650.952723998731</v>
       </c>
       <c r="W38" t="n">
-        <v>1993.489344467471</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="X38" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="Y38" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769802</v>
+        <v>1814.990048232788</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1951.406783011508</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>1951.406783011508</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>1951.406783011508</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1256.051951669587</v>
+        <v>1530.670136571905</v>
       </c>
       <c r="C41" t="n">
-        <v>1256.051951669587</v>
+        <v>1530.670136571905</v>
       </c>
       <c r="D41" t="n">
-        <v>1256.051951669587</v>
+        <v>1530.670136571905</v>
       </c>
       <c r="E41" t="n">
-        <v>1256.051951669587</v>
+        <v>1128.08661168845</v>
       </c>
       <c r="F41" t="n">
-        <v>839.1575131995652</v>
+        <v>711.1921732184277</v>
       </c>
       <c r="G41" t="n">
-        <v>425.9947576875683</v>
+        <v>298.0294177064308</v>
       </c>
       <c r="H41" t="n">
-        <v>101.911707254059</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L41" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V41" t="n">
-        <v>2023.541695780699</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W41" t="n">
-        <v>1652.542660748986</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X41" t="n">
-        <v>1652.542660748986</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="Y41" t="n">
-        <v>1256.051951669587</v>
+        <v>1931.164882283302</v>
       </c>
     </row>
     <row r="42">
@@ -7482,40 +7484,40 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.116207068686</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N42" t="n">
-        <v>1436.116207068686</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
         <v>2029.816973074021</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>622.0429194582225</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>356.0635742790467</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>356.0635742790467</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>482.9645045527717</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C44" t="n">
-        <v>482.9645045527717</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D44" t="n">
-        <v>250.6806912819119</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E44" t="n">
-        <v>250.6806912819119</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F44" t="n">
-        <v>18.3968780110521</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G44" t="n">
-        <v>18.3968780110521</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>52.01424425134718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>279.6756096381168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L44" t="n">
-        <v>507.3369750248865</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M44" t="n">
-        <v>734.9983404116562</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N44" t="n">
-        <v>734.9983404116562</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O44" t="n">
-        <v>734.9983404116562</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>734.9983404116562</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>919.8439005526047</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T44" t="n">
-        <v>919.8439005526047</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U44" t="n">
-        <v>687.5600872817449</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V44" t="n">
-        <v>687.5600872817449</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W44" t="n">
-        <v>687.5600872817449</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X44" t="n">
-        <v>687.5600872817449</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="Y44" t="n">
-        <v>687.5600872817449</v>
+        <v>788.2904590050753</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>343.4898677801667</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C45" t="n">
-        <v>192.8356373402589</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D45" t="n">
-        <v>62.7466699617392</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E45" t="n">
-        <v>62.7466699617392</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>62.7466699617392</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>62.7466699617392</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H45" t="n">
-        <v>62.7466699617392</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J45" t="n">
-        <v>131.5118602307795</v>
+        <v>160.4279523212709</v>
       </c>
       <c r="K45" t="n">
-        <v>236.8598043922958</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>236.8598043922958</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="M45" t="n">
-        <v>236.8598043922958</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="N45" t="n">
-        <v>236.8598043922958</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>464.5211697790655</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>692.1825351658351</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526047</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>919.8439005526047</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>742.8600887515132</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>532.796945430155</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>532.796945430155</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>532.796945430155</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>343.4898677801667</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>343.4898677801667</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.6019959450629</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>18.39687801105217</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330579</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>796.5455384059752</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>919.8439005526047</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>919.8439005526047</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5600872817449</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>596.9220758197208</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>373.8100146363641</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>267.3708664324162</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M3" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N3" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0443399574658</v>
+        <v>307.7529874266314</v>
       </c>
       <c r="Q3" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,13 +8224,13 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>370.3946742050441</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>224.1225783053243</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P5" t="n">
         <v>380.2624223790764</v>
@@ -8292,10 +8294,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
@@ -8304,7 +8306,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>191.7841776637791</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O6" t="n">
         <v>322.6485340270401</v>
@@ -8313,7 +8315,7 @@
         <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8458,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>271.0551987388116</v>
       </c>
       <c r="M8" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8601881221531</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,13 +8531,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>196.0090001429458</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>320.0213219950694</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M9" t="n">
         <v>322.3480971874631</v>
@@ -8544,7 +8546,7 @@
         <v>315.3330879923178</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>383.2091448686429</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M11" t="n">
-        <v>267.5320806060471</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N11" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O12" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
-        <v>193.4954296289271</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8930,16 +8932,16 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N14" t="n">
-        <v>369.788113945101</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O14" t="n">
-        <v>379.5248125622476</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P14" t="n">
         <v>380.2624223790764</v>
@@ -9006,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M15" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>307.7529874266314</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M17" t="n">
-        <v>379.6860267358784</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>379.0794664759352</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>268.108476249245</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>319.5579104714845</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>313.0567446566288</v>
+        <v>384.8576652182069</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>320.9491282940651</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>457.8528328367281</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9413,10 +9415,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9480,22 +9482,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>422.8212561536983</v>
+        <v>509.5709760063959</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9650,7 +9652,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -9714,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>89.90975703142958</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9725,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9881,19 +9883,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>412.8955348410459</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>290.0251085634814</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10112,7 +10114,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>363.4321479293332</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10127,7 +10129,7 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>359.7712890658282</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10191,22 +10193,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>415.8062469585533</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10349,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10425,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>577.0069902189997</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10595,16 +10597,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749214</v>
       </c>
       <c r="O35" t="n">
-        <v>399.6354845339704</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>89.90975703142982</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10835,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,22 +10901,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>99.852421747409</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>239.1896681090848</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>281.329912376922</v>
       </c>
       <c r="M41" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>395.3134182086915</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O42" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>151.6367735386038</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>379.6860267358784</v>
+        <v>663.8430986641865</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,25 +11378,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>196.0090001429458</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118429</v>
       </c>
       <c r="O45" t="n">
-        <v>322.6485340270401</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>317.0443399574658</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>320.9491282940652</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>358.5054431434315</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.2807963649477</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>75.93063993247476</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -22677,7 +22679,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -22686,7 +22688,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>128.5327396574402</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22705,22 +22707,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>60.3984747532603</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -22753,19 +22755,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>278.7353941257269</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22787,7 +22789,7 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D5" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>244.4116007317834</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22847,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.336827284005608</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -22911,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>52.15039932573006</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -22939,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>89.83064772952756</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.9401713525995</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23078,7 +23080,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -23097,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>49.0210316694701</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
@@ -23148,19 +23150,19 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>96.61547095729574</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
         <v>187.4140068734885</v>
@@ -23182,10 +23184,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -23315,10 +23317,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>108.7247660653656</v>
+        <v>136.1361143018333</v>
       </c>
       <c r="W11" t="n">
-        <v>164.739417779712</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X11" t="n">
         <v>155.5971038781226</v>
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -23388,19 +23390,19 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>152.4497133079354</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>155.105074115885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23495,10 +23497,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>287.4529155444434</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23513,7 +23515,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>136.1361143018333</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.91157542984062</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -23631,7 +23633,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>70.91157542984064</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>193.9401713525994</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23741,13 +23743,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>90.88124479102308</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23780,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>149.0579253873703</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>153.4742138855135</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>52.62342870236691</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>33.35857658923285</v>
+        <v>87.62118754448954</v>
       </c>
       <c r="W19" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24023,19 +24025,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>55.15399286960752</v>
+        <v>229.8957603952815</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24142,7 +24144,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>64.89287648338438</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>68.10189727721712</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>76.25406370687784</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>102.0518681615384</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,10 +24259,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24269,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>221.8763699149585</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>34.67833723205484</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24497,13 +24499,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>205.1743401347732</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24613,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>100.5400146614481</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.3244398042871</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24692,10 +24694,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>41.01405723287843</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24737,7 +24739,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>318.9553008700697</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275501</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>23.65888910788235</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>389.4392546494532</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24968,16 +24970,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>52.61103243193392</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.041169613593979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>312.6050935585159</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>162.9701991118754</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>87.62118754448949</v>
+        <v>87.62118754448937</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>55.28943149825835</v>
+        <v>143.210701199111</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214576</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25634,7 +25636,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>209.5866825387957</v>
       </c>
       <c r="I41" t="n">
-        <v>82.9009959574696</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25685,10 +25687,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25789,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>2.416907850171839</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.9401713525994</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>151.6257423573477</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>182.7645189471708</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25913,22 +25915,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>23.23422713159619</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>169.2576174840875</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25950,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.98708741702729</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>50.53612290998296</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>142.0078876474429</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421011.9769990852</v>
+        <v>421011.976999085</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421011.9769990852</v>
+        <v>677883.4022276012</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677883.4022276012</v>
+        <v>677883.4022276009</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677883.4022276012</v>
+        <v>677883.402227601</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677883.4022276006</v>
+        <v>677883.4022276009</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677883.4022276012</v>
+        <v>677883.4022276009</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677883.4022276009</v>
+        <v>677883.4022276012</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677883.4022276009</v>
+        <v>677883.402227601</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421011.976999085</v>
+        <v>677883.4022276013</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84175.94020608679</v>
+        <v>84175.94020608677</v>
       </c>
       <c r="C2" t="n">
-        <v>84175.94020608679</v>
+        <v>84175.94020608676</v>
       </c>
       <c r="D2" t="n">
-        <v>84175.9402060868</v>
+        <v>84175.94020608677</v>
       </c>
       <c r="E2" t="n">
         <v>84175.94020608679</v>
@@ -26326,7 +26328,7 @@
         <v>84175.94020608683</v>
       </c>
       <c r="G2" t="n">
-        <v>84175.94020608679</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="H2" t="n">
         <v>135515.4785656234</v>
@@ -26338,22 +26340,22 @@
         <v>135515.4785656234</v>
       </c>
       <c r="K2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="L2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="M2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="N2" t="n">
         <v>135515.4785656234</v>
       </c>
       <c r="O2" t="n">
-        <v>135515.4785656235</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="P2" t="n">
-        <v>84175.94020608679</v>
+        <v>135515.4785656234</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99068.33875777952</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>86983.58097086086</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14361.01034434902</v>
+        <v>14361.01034434903</v>
       </c>
       <c r="C4" t="n">
         <v>14361.01034434902</v>
       </c>
       <c r="D4" t="n">
-        <v>14361.01034434902</v>
+        <v>14361.01034434903</v>
       </c>
       <c r="E4" t="n">
         <v>14361.01034434902</v>
@@ -26430,7 +26432,7 @@
         <v>14361.01034434902</v>
       </c>
       <c r="G4" t="n">
-        <v>14361.01034434902</v>
+        <v>23353.24319649381</v>
       </c>
       <c r="H4" t="n">
         <v>23353.24319649382</v>
@@ -26454,10 +26456,10 @@
         <v>23353.24319649382</v>
       </c>
       <c r="O4" t="n">
+        <v>23353.24319649381</v>
+      </c>
+      <c r="P4" t="n">
         <v>23353.24319649382</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14361.01034434902</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54859.50929788445</v>
+        <v>-54859.50929788446</v>
       </c>
       <c r="C6" t="n">
-        <v>22205.70257333817</v>
+        <v>22205.70257333815</v>
       </c>
       <c r="D6" t="n">
-        <v>22205.70257333819</v>
+        <v>22205.70257333816</v>
       </c>
       <c r="E6" t="n">
         <v>55833.30257333817</v>
@@ -26534,22 +26536,22 @@
         <v>55833.30257333822</v>
       </c>
       <c r="G6" t="n">
-        <v>55833.30257333817</v>
+        <v>-22863.96066582306</v>
       </c>
       <c r="H6" t="n">
-        <v>-21318.39554358637</v>
+        <v>76204.37809195643</v>
       </c>
       <c r="I6" t="n">
-        <v>76204.37809195642</v>
+        <v>76204.37809195643</v>
       </c>
       <c r="J6" t="n">
-        <v>16036.46871291</v>
+        <v>16036.46871291002</v>
       </c>
       <c r="K6" t="n">
-        <v>76204.37809195646</v>
+        <v>76204.3780919564</v>
       </c>
       <c r="L6" t="n">
-        <v>76204.37809195643</v>
+        <v>76204.3780919564</v>
       </c>
       <c r="M6" t="n">
         <v>76204.3780919564</v>
@@ -26558,10 +26560,10 @@
         <v>76204.37809195643</v>
       </c>
       <c r="O6" t="n">
-        <v>76204.37809195649</v>
+        <v>-10779.20287890442</v>
       </c>
       <c r="P6" t="n">
-        <v>55833.30257333817</v>
+        <v>76204.37809195643</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="H4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M3" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74.55874088122788</v>
       </c>
       <c r="P5" t="n">
         <v>229.9609751381512</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>106.4120648096124</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O6" t="n">
         <v>229.9609751381512</v>
@@ -35033,7 +35035,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,7 +35111,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P7" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q7" t="n">
         <v>3.456764010152483</v>
@@ -35176,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P8" t="n">
-        <v>74.55874088122788</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M9" t="n">
         <v>229.9609751381512</v>
@@ -35264,7 +35266,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M11" t="n">
-        <v>117.8070290083198</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M12" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="O14" t="n">
         <v>220.6696226073169</v>
-      </c>
-      <c r="O14" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="P14" t="n">
         <v>229.9609751381512</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O15" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P15" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9609751381512</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>117.8070290083198</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>229.9609751381512</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>220.6696226073169</v>
+        <v>292.470543168895</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.9609751381512</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>314.7944296574907</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36133,10 +36135,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>330.4341341043864</v>
+        <v>417.183853957084</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.465299698096228</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36445,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36601,19 +36603,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>263.1704832433186</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>199.9647617065632</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>220.3737447500958</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36847,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>209.469841824903</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>330.4341341043866</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>484.6198681696878</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37315,16 +37317,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371374</v>
       </c>
       <c r="O35" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.465299698096472</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37555,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>146.5021092201959</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="M41" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>302.9262961593795</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O42" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>33.95693559625766</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>229.9609751381512</v>
+        <v>514.1180470664593</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>106.4120648096125</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576763</v>
       </c>
       <c r="O45" t="n">
-        <v>229.9609751381512</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>229.9609751381512</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>229.9609751381512</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285766.739839982</v>
+        <v>278064.3823881404</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037395.839817931</v>
+        <v>6037395.839817916</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6649161.326881276</v>
+        <v>6649161.326881277</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.783601537963911</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>99.28333375060579</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>163.7681112881792</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="W4" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.761703922407231</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>37.70120739332352</v>
       </c>
       <c r="U5" t="n">
-        <v>8.78360153796395</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>131.7451986962155</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,23 +1132,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.78360153796395</v>
+      </c>
+      <c r="F8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C8" t="n">
+      <c r="G8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D8" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="E8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>123.6991306553479</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>79.08012240725678</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V11" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830806</v>
+        <v>25.24748586289822</v>
       </c>
       <c r="U12" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>32.30893275760349</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>184.2126109647688</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>202.5496269016835</v>
-      </c>
-      <c r="W14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>49.10800816335175</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>149.403026182803</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>292.23405377024</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.4678766012345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I18" t="n">
         <v>48.89338144820752</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>175.6983641828945</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>52.18044401987108</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>137.3932842861139</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830805</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
         <v>207.9625118881446</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>89.03088904473657</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>279.5348493339605</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>203.8872710088526</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>108.1045920014104</v>
+        <v>21.27104444158488</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2487,13 +2487,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>354.5654092500438</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>179.0377115690858</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>207.4441370379537</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>117.9429793885292</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>368.0170707239984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.3149947016333</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.046105082955</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>9.118434985167641</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>72.87250780621707</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>149.882595914527</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>76.63865292358274</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
@@ -3286,7 +3286,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>164.1128087484205</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>115.0763613754838</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>78.05489521706652</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3568,7 +3568,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>135.1966291281701</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>18.60221822740271</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2555373903785</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>193.79500475719</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>216.3004615321862</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010083</v>
+        <v>174.8701987037817</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C2" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D2" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E2" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F2" t="n">
         <v>18.39687801105209</v>
@@ -4336,46 +4336,46 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L2" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="M2" t="n">
         <v>618.3693816934194</v>
       </c>
-      <c r="M2" t="n">
-        <v>734.998340411656</v>
-      </c>
       <c r="N2" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T2" t="n">
-        <v>491.8368293385938</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
-        <v>259.553016067734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V2" t="n">
-        <v>27.26920279687423</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W2" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.1400758294795</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="C3" t="n">
-        <v>148.4858453895718</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="D3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="E3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="F3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="G3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="H3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>473.7196087845913</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
-        <v>701.380974171361</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N3" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O3" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P3" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U3" t="n">
-        <v>919.8439005526046</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V3" t="n">
-        <v>919.8439005526046</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W3" t="n">
-        <v>819.557704844922</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X3" t="n">
-        <v>630.2506271949337</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="Y3" t="n">
-        <v>450.9364102704409</v>
+        <v>67.7841319991405</v>
       </c>
     </row>
     <row r="4">
@@ -4515,19 +4515,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U4" t="n">
-        <v>252.4601901934343</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V4" t="n">
-        <v>20.17637692257455</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W4" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X4" t="n">
         <v>18.39687801105209</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C5" t="n">
         <v>18.39687801105209</v>
@@ -4567,22 +4567,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>246.0582433978217</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M5" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N5" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O5" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P5" t="n">
         <v>919.8439005526046</v>
@@ -4591,16 +4591,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>715.3374317791771</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T5" t="n">
-        <v>491.8368293385938</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U5" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V5" t="n">
         <v>482.9645045527716</v>
@@ -4612,7 +4612,7 @@
         <v>482.9645045527716</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432.2160341084851</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="C6" t="n">
-        <v>281.5618036685773</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="D6" t="n">
-        <v>151.4728362900577</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="E6" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="F6" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="G6" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="H6" t="n">
         <v>18.39687801105209</v>
@@ -4646,25 +4646,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M6" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N6" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O6" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
@@ -4673,25 +4673,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T6" t="n">
-        <v>584.0123685494465</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U6" t="n">
-        <v>584.0123685494465</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V6" t="n">
-        <v>584.0123685494465</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W6" t="n">
-        <v>584.0123685494465</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X6" t="n">
-        <v>584.0123685494465</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y6" t="n">
-        <v>584.0123685494465</v>
+        <v>43.89938898367657</v>
       </c>
     </row>
     <row r="7">
@@ -4749,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T7" t="n">
-        <v>360.8430140968712</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5592008260114</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="V7" t="n">
-        <v>18.39687801105209</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="W7" t="n">
-        <v>18.39687801105209</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="X7" t="n">
-        <v>18.39687801105209</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.39687801105209</v>
+        <v>20.17637692257455</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.5600872817448</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="C8" t="n">
-        <v>455.276274010885</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="D8" t="n">
+        <v>491.8368293385938</v>
+      </c>
+      <c r="E8" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F8" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
         <v>18.39687801105209</v>
@@ -4813,7 +4813,7 @@
         <v>279.6756096381168</v>
       </c>
       <c r="M8" t="n">
-        <v>507.3369750248864</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N8" t="n">
         <v>507.3369750248864</v>
@@ -4828,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>272.9176515064399</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C9" t="n">
-        <v>272.9176515064399</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D9" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E9" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F9" t="n">
         <v>18.39687801105209</v>
@@ -4883,52 +4883,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L9" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M9" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="N9" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="O9" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O9" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P9" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T9" t="n">
-        <v>607.9294116513819</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U9" t="n">
-        <v>397.8662683300237</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="V9" t="n">
-        <v>272.9176515064399</v>
+        <v>328.3930354002468</v>
       </c>
       <c r="W9" t="n">
-        <v>272.9176515064399</v>
+        <v>98.2757895335337</v>
       </c>
       <c r="X9" t="n">
-        <v>272.9176515064399</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y9" t="n">
-        <v>272.9176515064399</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C10" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D10" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E10" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F10" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4989,25 +4989,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S10" t="n">
-        <v>795.9429111851816</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T10" t="n">
-        <v>795.9429111851816</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U10" t="n">
-        <v>795.9429111851816</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="V10" t="n">
-        <v>795.9429111851816</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="W10" t="n">
-        <v>795.9429111851816</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="X10" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y10" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H11" t="n">
         <v>18.39687801105209</v>
@@ -5041,16 +5041,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K11" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L11" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="M11" t="n">
         <v>236.8598043922958</v>
-      </c>
-      <c r="M11" t="n">
-        <v>464.5211697790654</v>
       </c>
       <c r="N11" t="n">
         <v>464.5211697790654</v>
@@ -5071,22 +5071,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U11" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V11" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W11" t="n">
         <v>482.9645045527716</v>
       </c>
       <c r="X11" t="n">
-        <v>250.6806912819119</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>169.0511084509599</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C12" t="n">
         <v>18.39687801105209</v>
@@ -5120,52 +5120,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L12" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M12" t="n">
-        <v>464.5211697790654</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N12" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O12" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="P12" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R12" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S12" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T12" t="n">
-        <v>742.8600887515131</v>
+        <v>870.4243464780448</v>
       </c>
       <c r="U12" t="n">
-        <v>532.7969454301549</v>
+        <v>660.3612031566865</v>
       </c>
       <c r="V12" t="n">
-        <v>532.7969454301549</v>
+        <v>437.8212015277536</v>
       </c>
       <c r="W12" t="n">
-        <v>532.7969454301549</v>
+        <v>207.7039556610404</v>
       </c>
       <c r="X12" t="n">
-        <v>500.161659816414</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y12" t="n">
-        <v>320.8474428919212</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.39687801105209</v>
+        <v>501.4867428728874</v>
       </c>
       <c r="C13" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="D13" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E13" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F13" t="n">
         <v>18.39687801105209</v>
@@ -5223,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S13" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T13" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5592008260114</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V13" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W13" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X13" t="n">
-        <v>18.39687801105209</v>
+        <v>501.4867428728874</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.39687801105209</v>
+        <v>501.4867428728874</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C14" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D14" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E14" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F14" t="n">
         <v>18.39687801105209</v>
@@ -5278,25 +5278,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K14" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L14" t="n">
-        <v>18.39687801105209</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M14" t="n">
-        <v>246.0582433978217</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N14" t="n">
-        <v>473.7196087845913</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O14" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P14" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5314,16 +5314,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V14" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="W14" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="X14" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="Y14" t="n">
         <v>715.2483178236314</v>
-      </c>
-      <c r="W14" t="n">
-        <v>482.9645045527716</v>
-      </c>
-      <c r="X14" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.39687801105209</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="C15" t="n">
-        <v>18.39687801105209</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="D15" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="E15" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F15" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G15" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H15" t="n">
         <v>18.39687801105209</v>
@@ -5357,19 +5357,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
         <v>236.8598043922958</v>
       </c>
       <c r="L15" t="n">
-        <v>464.5211697790654</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M15" t="n">
-        <v>464.5211697790654</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5211697790654</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O15" t="n">
         <v>464.5211697790654</v>
@@ -5381,28 +5381,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R15" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S15" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T15" t="n">
-        <v>919.8439005526046</v>
+        <v>711.3921317006877</v>
       </c>
       <c r="U15" t="n">
-        <v>919.8439005526046</v>
+        <v>711.3921317006877</v>
       </c>
       <c r="V15" t="n">
-        <v>768.9317528932077</v>
+        <v>711.3921317006877</v>
       </c>
       <c r="W15" t="n">
-        <v>538.8145070264945</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="X15" t="n">
-        <v>349.5074293765062</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="Y15" t="n">
-        <v>170.1932124520134</v>
+        <v>481.2748858339746</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D16" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E16" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F16" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H16" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I16" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J16" t="n">
         <v>18.39687801105209</v>
@@ -5466,22 +5466,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U16" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V16" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.396020535053</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C17" t="n">
-        <v>371.396020535053</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D17" t="n">
-        <v>371.396020535053</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>371.396020535053</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>1975.634347577647</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>1719.881618012245</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V17" t="n">
-        <v>1377.774808715764</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W17" t="n">
-        <v>1006.775773684051</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X17" t="n">
-        <v>617.3231686171081</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.396020535053</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.164039799289</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5700,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>224.7860652357804</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V19" t="n">
-        <v>47.31297010154359</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154359</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1228.513125265401</v>
+        <v>1332.661208179009</v>
       </c>
       <c r="C20" t="n">
-        <v>835.3376237683314</v>
+        <v>1332.661208179009</v>
       </c>
       <c r="D20" t="n">
-        <v>449.8964949849991</v>
+        <v>1332.661208179009</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154359</v>
+        <v>930.0776832955537</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>513.1832448255315</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>100.0204893135346</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.895775511778</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V20" t="n">
-        <v>1767.788966215297</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W20" t="n">
-        <v>1629.007870976798</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="X20" t="n">
-        <v>1629.007870976798</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="Y20" t="n">
-        <v>1629.007870976798</v>
+        <v>1733.155953890406</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1263.630217479596</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O21" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>137.243161055823</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>137.243161055823</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>137.243161055823</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>137.243161055823</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>137.243161055823</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5934,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>824.8590032756731</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>824.8590032756731</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>541.5286012068507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1886.395173071195</v>
+        <v>1485.900427359799</v>
       </c>
       <c r="C23" t="n">
-        <v>1886.395173071195</v>
+        <v>1485.900427359799</v>
       </c>
       <c r="D23" t="n">
-        <v>1604.036739400527</v>
+        <v>1485.900427359799</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.453214517072</v>
+        <v>1083.316902476343</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>666.4224640063209</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>253.259708494324</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -5998,43 +5998,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2142.147902636596</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U23" t="n">
-        <v>1886.395173071195</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V23" t="n">
-        <v>1886.395173071195</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W23" t="n">
-        <v>1886.395173071195</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="X23" t="n">
-        <v>1886.395173071195</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="Y23" t="n">
-        <v>1886.395173071195</v>
+        <v>1886.395173071196</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6113,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C25" t="n">
-        <v>839.5634350659138</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9303219684286</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E25" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6180,19 +6180,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2023.541695780698</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C26" t="n">
-        <v>1665.394817750351</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D26" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V26" t="n">
-        <v>2023.541695780698</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W26" t="n">
-        <v>2023.541695780698</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.541695780698</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.541695780698</v>
+        <v>825.9296003819453</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6411,25 +6411,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>536.404376464076</v>
       </c>
       <c r="V28" t="n">
-        <v>397.3418557058213</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W28" t="n">
-        <v>114.011453636999</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X28" t="n">
-        <v>114.011453636999</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1197.664015254671</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="C29" t="n">
-        <v>804.4885137576016</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0473849742693</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E29" t="n">
-        <v>419.0473849742693</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F29" t="n">
-        <v>419.0473849742693</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
         <v>406.2953261290054</v>
@@ -6475,40 +6475,40 @@
         <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O29" t="n">
-        <v>1973.427801529577</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W29" t="n">
-        <v>1994.649470045467</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X29" t="n">
-        <v>1994.649470045467</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y29" t="n">
-        <v>1598.158760966068</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068685</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X30" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.201482535627</v>
+        <v>326.6555679173272</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535627</v>
+        <v>156.4504499833164</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535627</v>
+        <v>156.4504499833164</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535627</v>
+        <v>156.4504499833164</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535627</v>
+        <v>156.4504499833164</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008357</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X31" t="n">
-        <v>1848.23778079134</v>
+        <v>511.8635866086285</v>
       </c>
       <c r="Y31" t="n">
-        <v>1625.125719607983</v>
+        <v>511.8635866086285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.21044521944</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C32" t="n">
-        <v>1179.21044521944</v>
+        <v>968.782859969574</v>
       </c>
       <c r="D32" t="n">
-        <v>793.7693164361081</v>
+        <v>583.3417311862418</v>
       </c>
       <c r="E32" t="n">
-        <v>784.5587760470498</v>
+        <v>583.3417311862418</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>583.3417311862418</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>318.7636682303378</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749184</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.57585191238</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.195900010236</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y32" t="n">
-        <v>1579.705190930837</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154358</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>397.3418557058213</v>
+        <v>854.2900019614187</v>
       </c>
       <c r="C34" t="n">
-        <v>397.3418557058213</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D34" t="n">
-        <v>397.3418557058213</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E34" t="n">
-        <v>397.3418557058213</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F34" t="n">
-        <v>397.3418557058213</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G34" t="n">
-        <v>229.0878018052669</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6891,19 +6891,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V34" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W34" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X34" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y34" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1802.644240938831</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C35" t="n">
-        <v>1725.23146020794</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D35" t="n">
-        <v>1339.790331424607</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E35" t="n">
-        <v>1339.790331424607</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F35" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G35" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
@@ -6946,43 +6946,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N35" t="n">
-        <v>1832.615452804709</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2199.13495001823</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V35" t="n">
-        <v>2199.13495001823</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W35" t="n">
-        <v>2199.13495001823</v>
+        <v>1174.011381113993</v>
       </c>
       <c r="X35" t="n">
-        <v>2199.13495001823</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="Y35" t="n">
-        <v>1802.644240938831</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>54.7036168026591</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>374.4427628648855</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L36" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2251.338671304668</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2015.619619472902</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U37" t="n">
-        <v>1730.180827714802</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V37" t="n">
-        <v>1464.201482535627</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W37" t="n">
-        <v>1464.201482535627</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X37" t="n">
-        <v>1464.201482535627</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1279.953688967018</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="C38" t="n">
-        <v>1279.953688967018</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>487.634769399178</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>487.634769399178</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>487.634769399178</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>487.634769399178</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>163.5517189656687</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>318.7636682303378</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749184</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>1920.147110703377</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2248.812262860614</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.059533295213</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V38" t="n">
-        <v>1650.952723998731</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W38" t="n">
-        <v>1279.953688967018</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X38" t="n">
-        <v>1279.953688967018</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y38" t="n">
-        <v>1279.953688967018</v>
+        <v>873.0758981825103</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K39" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L39" t="n">
-        <v>643.9940382195842</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M39" t="n">
-        <v>1229.492043226186</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.990048232788</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>507.6880877875118</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>352.1292756467143</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7362,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>330.643372170366</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W40" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1530.670136571905</v>
+        <v>987.9856542624333</v>
       </c>
       <c r="C41" t="n">
-        <v>1530.670136571905</v>
+        <v>987.9856542624333</v>
       </c>
       <c r="D41" t="n">
-        <v>1530.670136571905</v>
+        <v>602.544525479101</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.08661168845</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F41" t="n">
-        <v>711.1921732184277</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G41" t="n">
-        <v>298.0294177064308</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H41" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.615452804709</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2327.655591362701</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V41" t="n">
-        <v>2327.655591362701</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W41" t="n">
-        <v>2327.655591362701</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X41" t="n">
-        <v>2327.655591362701</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y41" t="n">
-        <v>1931.164882283302</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L42" t="n">
-        <v>963.7331842818107</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M42" t="n">
-        <v>1263.630217479596</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N42" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>397.3418557058213</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>788.2904590050753</v>
+        <v>1408.882782488167</v>
       </c>
       <c r="C44" t="n">
-        <v>788.2904590050753</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D44" t="n">
-        <v>788.2904590050753</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E44" t="n">
-        <v>788.2904590050753</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F44" t="n">
-        <v>371.396020535053</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G44" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.421412053329</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>1975.634347577647</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>1719.881618012245</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V44" t="n">
-        <v>1377.774808715764</v>
+        <v>1779.88181751988</v>
       </c>
       <c r="W44" t="n">
-        <v>1006.775773684051</v>
+        <v>1408.882782488167</v>
       </c>
       <c r="X44" t="n">
-        <v>788.2904590050753</v>
+        <v>1408.882782488167</v>
       </c>
       <c r="Y44" t="n">
-        <v>788.2904590050753</v>
+        <v>1408.882782488167</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.4279523212709</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818106</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M45" t="n">
-        <v>963.7331842818106</v>
+        <v>632.8109751081458</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7836,22 +7836,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V46" t="n">
-        <v>397.3418557058213</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W46" t="n">
-        <v>114.011453636999</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>267.5320806060471</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>307.7529874266314</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>370.3946742050441</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
@@ -8303,19 +8303,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
-        <v>306.0417354614835</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8461,10 +8461,10 @@
         <v>271.0551987388116</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>373.9177923378086</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
         <v>379.5248125622476</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>322.3480971874631</v>
@@ -8789,7 +8789,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M14" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>370.2334600314132</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P14" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>310.2665579406502</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L15" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -9020,7 +9020,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P15" t="n">
         <v>317.0443399574658</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9178,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,13 +9251,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>384.8576652182069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9415,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>509.5709760063959</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9646,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>647.6646819662596</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,13 +9725,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>415.8062469585524</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10123,16 +10123,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>682.2612020826953</v>
+        <v>633.9592855728719</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>359.7712890658282</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N30" t="n">
-        <v>502.5559668112506</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10354,13 +10354,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>422.8212561536977</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10594,13 +10594,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>393.9156246749214</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>89.90975703142982</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,7 +10673,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10825,10 +10825,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>427.4407941030111</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10840,7 +10840,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>413.5901686882534</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10910,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>179.0738312465423</v>
       </c>
       <c r="O39" t="n">
-        <v>239.1896681090848</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,10 +11062,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>281.329912376922</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11074,10 +11074,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>395.3134182086915</v>
+        <v>351.5705978518764</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>663.8430986641865</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118429</v>
+        <v>667.5244230630204</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22558,7 +22558,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>210.1758671836386</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>358.5054431434315</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -22646,7 +22646,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -22682,19 +22682,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>128.5327396574402</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>23.64589558530929</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -22755,22 +22755,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>33.35857658923285</v>
+        <v>60.76992482570057</v>
       </c>
       <c r="W4" t="n">
-        <v>278.7353941257269</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,7 +22786,7 @@
         <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>183.564389022854</v>
       </c>
       <c r="U5" t="n">
-        <v>244.4116007317834</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -22852,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>3.336827284005608</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -22880,7 +22880,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>62.16695637250685</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -22913,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>181.594234581981</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>389.774088096657</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23105,13 +23105,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>96.61547095729574</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>108.3338844662317</v>
       </c>
       <c r="Y9" t="n">
         <v>177.5210747552478</v>
@@ -23187,22 +23187,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>122.678819408037</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23275,7 +23275,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23311,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>18.71596951449399</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V11" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>149.9664878201824</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>155.105074115885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5715133615489</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>47.52690803007792</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,10 +23503,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -23554,16 +23554,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>162.5648268504537</v>
+        <v>189.9761750869214</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>48.89338144820752</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>175.2139736830806</v>
+        <v>126.1059655197289</v>
       </c>
       <c r="U15" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>70.91157542984064</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>80.03477693883463</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,16 +23740,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>75.05499091115541</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>149.0579253873703</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23940,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>87.62118754448954</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>268.6617759093032</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>229.8957603952815</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24144,7 +24144,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>64.89287648338438</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>102.0518681615384</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>116.9549489203217</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24366,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>60.39847475326023</v>
+        <v>147.2320223130858</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24420,13 +24420,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24445,19 +24445,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>34.67833723205484</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24493,25 +24493,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>213.4880904195191</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>100.5400146614481</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24651,25 +24651,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>75.14026680256438</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>278.5468188657537</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>41.01405723287843</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.04094380275501</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>58.52540827859387</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24888,7 +24888,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
@@ -24900,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>389.4392546494532</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>336.1586201506598</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.041169613593979</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25156,16 +25156,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>312.6050935585159</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>203.1762359329749</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25362,25 +25362,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>87.62118754448937</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>56.86932029106512</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>21.87738436297602</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>143.210701199111</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25554,16 +25554,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>20.55604631098666</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25602,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>377.8875800268802</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>209.5866825387957</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,7 +25867,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>144.8907364463268</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>169.2576174840875</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26076,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947459</v>
+        <v>56.86932029106507</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421011.976999085</v>
+        <v>421011.9769990852</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421011.9769990852</v>
+        <v>421011.9769990851</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421011.9769990852</v>
+        <v>421011.976999085</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677883.4022276009</v>
+        <v>677883.402227601</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677883.402227601</v>
+        <v>677883.4022276013</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677883.4022276009</v>
+        <v>677883.4022276006</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677883.4022276009</v>
+        <v>677883.4022276006</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677883.4022276009</v>
+        <v>677883.4022276013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677883.4022276012</v>
+        <v>677883.4022276009</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677883.402227601</v>
+        <v>677883.4022276013</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>84175.94020608679</v>
+      </c>
+      <c r="C2" t="n">
         <v>84175.94020608677</v>
-      </c>
-      <c r="C2" t="n">
-        <v>84175.94020608676</v>
       </c>
       <c r="D2" t="n">
         <v>84175.94020608677</v>
       </c>
       <c r="E2" t="n">
+        <v>84175.94020608682</v>
+      </c>
+      <c r="F2" t="n">
         <v>84175.94020608679</v>
-      </c>
-      <c r="F2" t="n">
-        <v>84175.94020608683</v>
       </c>
       <c r="G2" t="n">
         <v>135515.4785656234</v>
@@ -26340,10 +26340,10 @@
         <v>135515.4785656234</v>
       </c>
       <c r="K2" t="n">
-        <v>135515.4785656233</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="L2" t="n">
-        <v>135515.4785656233</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="M2" t="n">
         <v>135515.4785656233</v>
@@ -26355,7 +26355,7 @@
         <v>135515.4785656234</v>
       </c>
       <c r="P2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99068.33875777952</v>
+        <v>99068.33875777958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>86983.58097086086</v>
+        <v>86983.58097086092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14361.01034434903</v>
+        <v>14361.01034434902</v>
       </c>
       <c r="C4" t="n">
         <v>14361.01034434902</v>
       </c>
       <c r="D4" t="n">
-        <v>14361.01034434903</v>
+        <v>14361.01034434902</v>
       </c>
       <c r="E4" t="n">
         <v>14361.01034434902</v>
@@ -26432,7 +26432,7 @@
         <v>14361.01034434902</v>
       </c>
       <c r="G4" t="n">
-        <v>23353.24319649381</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="H4" t="n">
         <v>23353.24319649382</v>
@@ -26456,7 +26456,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="O4" t="n">
-        <v>23353.24319649381</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="P4" t="n">
         <v>23353.24319649382</v>
@@ -26484,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54859.50929788446</v>
+        <v>-55961.36491043396</v>
       </c>
       <c r="C6" t="n">
-        <v>22205.70257333815</v>
+        <v>21103.84696078865</v>
       </c>
       <c r="D6" t="n">
-        <v>22205.70257333816</v>
+        <v>21103.84696078865</v>
       </c>
       <c r="E6" t="n">
-        <v>55833.30257333817</v>
+        <v>54731.44696078869</v>
       </c>
       <c r="F6" t="n">
-        <v>55833.30257333822</v>
+        <v>54731.44696078866</v>
       </c>
       <c r="G6" t="n">
-        <v>-22863.96066582306</v>
+        <v>-23537.98679204318</v>
       </c>
       <c r="H6" t="n">
-        <v>76204.37809195643</v>
+        <v>75530.35196573636</v>
       </c>
       <c r="I6" t="n">
-        <v>76204.37809195643</v>
+        <v>75530.35196573639</v>
       </c>
       <c r="J6" t="n">
-        <v>16036.46871291002</v>
+        <v>15362.44258668993</v>
       </c>
       <c r="K6" t="n">
-        <v>76204.3780919564</v>
+        <v>75530.35196573641</v>
       </c>
       <c r="L6" t="n">
-        <v>76204.3780919564</v>
+        <v>75530.35196573639</v>
       </c>
       <c r="M6" t="n">
-        <v>76204.3780919564</v>
+        <v>75530.35196573634</v>
       </c>
       <c r="N6" t="n">
-        <v>76204.37809195643</v>
+        <v>75530.35196573642</v>
       </c>
       <c r="O6" t="n">
-        <v>-10779.20287890442</v>
+        <v>-11453.22900512455</v>
       </c>
       <c r="P6" t="n">
-        <v>76204.37809195643</v>
+        <v>75530.35196573634</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M2" t="n">
-        <v>117.8070290083198</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
-        <v>220.6696226073169</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P6" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>117.8070290083198</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O9" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="N11" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>229.9609751381512</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>229.9609751381512</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O14" t="n">
-        <v>220.6696226073169</v>
-      </c>
       <c r="P14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>229.9609751381512</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35898,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,13 +35971,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>292.470543168895</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36135,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>417.183853957084</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,13 +36445,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>330.4341341043857</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,16 +36843,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>484.8407942350878</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>209.469841824903</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N30" t="n">
-        <v>417.183853957084</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>330.4341341043858</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>244.7971333371374</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.465299698096472</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,7 +37393,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>274.1926243725193</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37560,7 +37560,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>263.2887214473282</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>93.70171839237568</v>
       </c>
       <c r="O39" t="n">
-        <v>146.5021092201959</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>128.0817426464304</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37794,10 +37794,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>302.9262961593795</v>
+        <v>259.1834758025645</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1180470664593</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576763</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
